--- a/安全帽名单.xlsx
+++ b/安全帽名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="153">
   <si>
     <t>材料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,9 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2694260605761</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,7 +524,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MEHEDI HASAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>19995914471107913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20023212451011077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.07.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUJON CHANDRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILON MIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SADDAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NASIR MIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NASIR HOSSAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL EMPLOYEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.07.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19983212451013936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.KHALAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABDUS SAMAD SHEIKH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵尚俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19945914487000204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015914471021141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19985914487041459</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,10 +1014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2158,7 +2255,7 @@
         <v>117</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>113</v>
@@ -2181,7 +2278,7 @@
         <v>118</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>113</v>
@@ -2204,7 +2301,7 @@
         <v>119</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>113</v>
@@ -2227,7 +2324,7 @@
         <v>120</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>113</v>
@@ -2241,7 +2338,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -2250,15 +2347,222 @@
         <v>121</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="5">
+        <v>4173844426</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2812732978</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6003758106</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1910736188</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/安全帽名单.xlsx
+++ b/安全帽名单.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$276:$G$293</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="829">
   <si>
     <t>材料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +539,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NASIR MIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵尚俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20023212451011077</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,11 +571,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUJON CHANDRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.07.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>安全帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUJON CHANDRA</t>
+    <t>LOCAL EMPLOYEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILON MIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19983212451013936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD.KHALAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABDUS SAMAD SHEIKH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵尚俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -560,7 +631,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MILON MIA</t>
+    <t>20027612260005218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19905914487000219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SADDAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19945914487000204</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,11 +659,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SADDAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NASIR MIA</t>
+    <t>赵尚俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015914471021141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -580,19 +679,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOCAL EMPLOYEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.07.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19983212451013936</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD.KHALAK</t>
+    <t>19985914487041459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md.sakibul hasan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -600,7 +691,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ABDUS SAMAD SHEIKH</t>
+    <t>md:Sagor hosen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md.Sobug Hossain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19945914471000118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Razzak Mallik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md.Sajjad Hossain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200326190485632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md:Anwer Hossain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anik mondal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md:sSabuj Sheikh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2404514057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19935918461000037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19915918461000145.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al amin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shakil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20045114360002305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,7 +783,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.08.02</t>
+    <t>主桥铁路纵梁混凝土（包工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jillur Rahman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵尚俊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,15 +799,2290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19945914487000204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20015914471021141</t>
+    <t>Abdur Rahman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19929019243000117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anwar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20045114387113566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主桥铁路纵梁混凝土（包工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20048619487100177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Osman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19917518547000248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zulhas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20039019243101918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主桥铁路纵梁混凝土（包工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19945114360036133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anwar Hossain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20035914471104551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余招飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parvej</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6911792767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余招飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5918440752208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arafat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015918447012670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sabbir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8705140823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safikul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5914471540898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余招飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamindo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15111722322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余招飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digonto</t>
+  </si>
+  <si>
+    <t>20045918461024709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mohsin</t>
+  </si>
+  <si>
+    <t>19955918447100962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3754463143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ujjol Chondro Bormon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5085762697</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabbi Sheikh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nironjon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noyon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mithun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alamin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂晓明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aynal</t>
+  </si>
+  <si>
+    <t>19818619480000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billal</t>
+  </si>
+  <si>
+    <t>19988619480024219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atiqur</t>
+  </si>
+  <si>
+    <t>19955418758003268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Din Islam</t>
+  </si>
+  <si>
+    <t>20028619480019722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chan Mia</t>
+  </si>
+  <si>
+    <t>1018601649</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sujon</t>
+  </si>
+  <si>
+    <t>19925418758003251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hakim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yasin Fakir</t>
+  </si>
+  <si>
+    <t>Shonkor Das</t>
+  </si>
+  <si>
+    <t>Rokibul Islam</t>
+  </si>
+  <si>
+    <t>Shawon</t>
+  </si>
+  <si>
+    <t>Emon Bepari</t>
+  </si>
+  <si>
+    <t>Sohel</t>
+  </si>
+  <si>
+    <t>Akash Hossain</t>
+  </si>
+  <si>
+    <t>Rabbi</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Sijan Shekh</t>
+  </si>
+  <si>
+    <t>Ariful Islam</t>
+  </si>
+  <si>
+    <t>Khokon</t>
+  </si>
+  <si>
+    <t>Muktar Hossain</t>
+  </si>
+  <si>
+    <t>Jobion Hossain</t>
+  </si>
+  <si>
+    <t>Liton Miah</t>
+  </si>
+  <si>
+    <t>Sirajul Islam</t>
+  </si>
+  <si>
+    <t>Salahuddin</t>
+  </si>
+  <si>
+    <t>Anam Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miraz </t>
+  </si>
+  <si>
+    <t>Al-Amin</t>
+  </si>
+  <si>
+    <t>Monsur</t>
+  </si>
+  <si>
+    <t>Hannan</t>
+  </si>
+  <si>
+    <t>Roney</t>
+  </si>
+  <si>
+    <t>Masum Sheikh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehedi </t>
+  </si>
+  <si>
+    <t>Mohasin</t>
+  </si>
+  <si>
+    <t>Rifat</t>
+  </si>
+  <si>
+    <t>Saiful Sikdar</t>
+  </si>
+  <si>
+    <t>Sohidul</t>
+  </si>
+  <si>
+    <t>Sagor Madbor</t>
+  </si>
+  <si>
+    <t>Jahid Hasan</t>
+  </si>
+  <si>
+    <t>Anik</t>
+  </si>
+  <si>
+    <t>Jahangir Khan</t>
+  </si>
+  <si>
+    <t>Rabbi Bepari</t>
+  </si>
+  <si>
+    <t>Rasel Hossain</t>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19885418747009925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂晓明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19953219175922083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001851587800159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20013219163003333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19993212458024084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011224209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹耀春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5062026140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹耀春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002911031003292</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8711713340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19925914413000173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20025914487037821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19985914487031445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹耀春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20035914487041553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015914487106093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5104421341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50144555713784</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5914455570968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹耀春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2854426521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2855713992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4657819191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7314927042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008721761</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1507960365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20043918573066425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19975914471107601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19932610413142134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20017510738025666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2699238595915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19902692535261706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19937628303000794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015918427028019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007594487036630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007594471021016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20066453760019752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20025914487043261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005914487040353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20037615560019141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masud</t>
+  </si>
+  <si>
+    <t>Tawhid</t>
+  </si>
+  <si>
+    <t>Yisin</t>
+  </si>
+  <si>
+    <t>Babul</t>
+  </si>
+  <si>
+    <t>Lmam</t>
+  </si>
+  <si>
+    <t>Noyon</t>
+  </si>
+  <si>
+    <t>Nogir</t>
+  </si>
+  <si>
+    <t>Damal</t>
+  </si>
+  <si>
+    <t>Samiol</t>
+  </si>
+  <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Rasol</t>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5914487522744</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.09.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹耀春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19985914471108119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000914471105533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20022911079002510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015914487001526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20035418087109898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19901018131031030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20049019243111096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20009019243111096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19969019282111635</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9019243138846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001026501016978</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20021018155009513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imranul karim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aksh</t>
+  </si>
+  <si>
+    <t>lalan</t>
+  </si>
+  <si>
+    <t>jahid</t>
+  </si>
+  <si>
+    <t>shakil</t>
+  </si>
+  <si>
+    <t>alamin</t>
+  </si>
+  <si>
+    <t>salam</t>
+  </si>
+  <si>
+    <t>rabin</t>
+  </si>
+  <si>
+    <t>rony</t>
+  </si>
+  <si>
+    <t>hasan</t>
+  </si>
+  <si>
+    <t>bokkor</t>
+  </si>
+  <si>
+    <t>elyas</t>
+  </si>
+  <si>
+    <t>babul</t>
+  </si>
+  <si>
+    <t>nuralom</t>
+  </si>
+  <si>
+    <t>maruf</t>
+  </si>
+  <si>
+    <t>shohag</t>
+  </si>
+  <si>
+    <t>imon</t>
+  </si>
+  <si>
+    <t>rasel</t>
+  </si>
+  <si>
+    <t>saiful</t>
+  </si>
+  <si>
+    <t>rakibul</t>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001038188014080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁永华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5531773405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵尚俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5101899499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎汉昆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4165821291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19855914439000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7804461056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2853601959</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎汉昆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2853705198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6904428916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4203721081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005917454013553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎汉昆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4653774309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007594439035303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20035914471107916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5914487521788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20065918454106174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200259144391106914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999489541794107445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007594439036243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20055215583000254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19985914431104914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1510731738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jahidul</t>
+  </si>
+  <si>
+    <t>Ohidul</t>
+  </si>
+  <si>
+    <t>Yasin</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>Sumon</t>
+  </si>
+  <si>
+    <t>2020.10.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎汉昆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎汉昆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003719176632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jalal Uddin</t>
+  </si>
+  <si>
+    <t>Shakil</t>
+  </si>
+  <si>
+    <t>Nazmul</t>
+  </si>
+  <si>
+    <t>Rakib Hossain</t>
+  </si>
+  <si>
+    <t>Nasir Hossain</t>
+  </si>
+  <si>
+    <t>Abdul Rahim</t>
+  </si>
+  <si>
+    <t>2003191766321395</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵尚俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19886911521000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹荣刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19955914487026348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1031034679</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20025914487026356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19985914487041459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹荣刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jahid Hossain</t>
+  </si>
+  <si>
+    <t>ABdur Rahim</t>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6003758445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20023212135000077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z0524</t>
+  </si>
+  <si>
+    <t>Z0522</t>
+  </si>
+  <si>
+    <t>Z0526</t>
+  </si>
+  <si>
+    <t>Z0527</t>
+  </si>
+  <si>
+    <t>Z0529</t>
+  </si>
+  <si>
+    <t>Z0523</t>
+  </si>
+  <si>
+    <t>Z0525</t>
+  </si>
+  <si>
+    <t>Z0528</t>
+  </si>
+  <si>
+    <t>R0101</t>
+  </si>
+  <si>
+    <t>R0100</t>
+  </si>
+  <si>
+    <t>R0102</t>
+  </si>
+  <si>
+    <t>R0099</t>
+  </si>
+  <si>
+    <t>R0104</t>
+  </si>
+  <si>
+    <t>R0106</t>
+  </si>
+  <si>
+    <t>R0105</t>
+  </si>
+  <si>
+    <t>R0103</t>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J岸现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20028619465008085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20038619480022016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20008619480019791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>199586194880003126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007548758001406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007869480011396</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19948619465007325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19951018131000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20018619465022162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20048619465006918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20016715879382776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sajib</t>
+  </si>
+  <si>
+    <t>Pias</t>
+  </si>
+  <si>
+    <t>2020.10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20025918461027966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mahiur Rahaman</t>
+  </si>
+  <si>
+    <t>Nur Amin</t>
+  </si>
+  <si>
+    <t>Rahin badsha</t>
+  </si>
+  <si>
+    <t>Uzzal</t>
+  </si>
+  <si>
+    <t>20058619487101913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J岸现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19978619465021559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20038619487014785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20057214095103483.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004861965003739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBEC5-Po_459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nijam</t>
+  </si>
+  <si>
+    <t>ID:2007594471035344</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saiful</t>
+  </si>
+  <si>
+    <t>ID:3756637355</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jahangir</t>
+  </si>
+  <si>
+    <t>ID:5914487522744</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sirajul</t>
+  </si>
+  <si>
+    <t>ID:4657819191</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rasel</t>
+  </si>
+  <si>
+    <t>ID:20005914471105533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jahid</t>
+  </si>
+  <si>
+    <t>ID:20005914487040353</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sohidul</t>
+  </si>
+  <si>
+    <t>ID:20076453760019752</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sagor</t>
+  </si>
+  <si>
+    <t>ID:20025914487043261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salahuddin</t>
+  </si>
+  <si>
+    <t>ID:7314927042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mohasin</t>
+  </si>
+  <si>
+    <t>ID:20015918427028019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mehedi</t>
+  </si>
+  <si>
+    <t>ID:19937628303000794</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rifat</t>
+  </si>
+  <si>
+    <t>ID:2007594487036630</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rabbi</t>
+  </si>
+  <si>
+    <t>ID:19985914471108119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hannan</t>
+  </si>
+  <si>
+    <t>ID:2004871365902360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manik</t>
+  </si>
+  <si>
+    <t>ID:20035918461104211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mahabub</t>
+  </si>
+  <si>
+    <t>ID:6890311622</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redoy</t>
+  </si>
+  <si>
+    <t>ID:2007594487036325</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nur</t>
+  </si>
+  <si>
+    <t>ID:19985448736008131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rahat</t>
+  </si>
+  <si>
+    <t>ID:20005918752101016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anik</t>
+  </si>
+  <si>
+    <t>ID:20037615560019141</t>
+  </si>
+  <si>
+    <t>2020.10.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mehedi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19937628303000794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mohasin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20015918427028019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007594487036325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hriday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔雪峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumilla</t>
+  </si>
+  <si>
+    <t>01732456290</t>
+  </si>
+  <si>
+    <t>dhaka1216</t>
+  </si>
+  <si>
+    <t>01626051537</t>
+  </si>
+  <si>
+    <t>jessore</t>
+  </si>
+  <si>
+    <t>01985312772</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>rahman</t>
+  </si>
+  <si>
+    <t>romjan</t>
+  </si>
+  <si>
+    <t>masum</t>
+  </si>
+  <si>
+    <t>israphil</t>
+  </si>
+  <si>
+    <t>jisan</t>
+  </si>
+  <si>
+    <t>sabbir</t>
+  </si>
+  <si>
+    <t>siful</t>
+  </si>
+  <si>
+    <t>shohedul</t>
+  </si>
+  <si>
+    <t>miraj</t>
+  </si>
+  <si>
+    <t>sumon</t>
+  </si>
+  <si>
+    <t>rashedul</t>
+  </si>
+  <si>
+    <t>imran</t>
+  </si>
+  <si>
+    <t>shifat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorif </t>
+  </si>
+  <si>
+    <t>masud</t>
+  </si>
+  <si>
+    <t>forhad</t>
+  </si>
+  <si>
+    <t>alif</t>
+  </si>
+  <si>
+    <t>nadim</t>
+  </si>
+  <si>
+    <t>shamim</t>
+  </si>
+  <si>
+    <t>nahid</t>
+  </si>
+  <si>
+    <t>rifat</t>
+  </si>
+  <si>
+    <t>mahamudul</t>
+  </si>
+  <si>
+    <t>shildar</t>
+  </si>
+  <si>
+    <t>rakib</t>
+  </si>
+  <si>
+    <t>SHORIFUL</t>
+  </si>
+  <si>
+    <t>SUJON</t>
+  </si>
+  <si>
+    <t>20015944710201844</t>
+  </si>
+  <si>
+    <t>19925914487000214</t>
+  </si>
+  <si>
+    <t>20065914455102820</t>
+  </si>
+  <si>
+    <t>20025914455000219</t>
+  </si>
+  <si>
+    <t>200359188411003560</t>
+  </si>
+  <si>
+    <t>2007598406018581</t>
+  </si>
+  <si>
+    <t>1504449412</t>
+  </si>
+  <si>
+    <t>19996722203005154</t>
+  </si>
+  <si>
+    <t>2855709990</t>
+  </si>
+  <si>
+    <t>19852618420002422</t>
+  </si>
+  <si>
+    <t>1999594487004331</t>
+  </si>
+  <si>
+    <t>20055914487102518</t>
+  </si>
+  <si>
+    <t>20065914471100183</t>
+  </si>
+  <si>
+    <t>20045914471104079</t>
+  </si>
+  <si>
+    <t>19985914471015582</t>
+  </si>
+  <si>
+    <t>2007594471020859</t>
+  </si>
+  <si>
+    <t>67499633048493454</t>
+  </si>
+  <si>
+    <t>4469066433591494</t>
+  </si>
+  <si>
+    <t>20035914471108195</t>
+  </si>
+  <si>
+    <t>20035914471104055</t>
+  </si>
+  <si>
+    <t>1987591448700734</t>
+  </si>
+  <si>
+    <t>20005914455107907</t>
+  </si>
+  <si>
+    <t>3303744324</t>
+  </si>
+  <si>
+    <t>6004458573</t>
+  </si>
+  <si>
+    <t>19995918807016604</t>
+  </si>
+  <si>
+    <t>199815487792359</t>
+  </si>
+  <si>
+    <t>9576334990</t>
+  </si>
+  <si>
+    <t>19992619048044879</t>
+  </si>
+  <si>
+    <t>2007594439025605</t>
+  </si>
+  <si>
+    <t>2007594471021124</t>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎汉昆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎汉昆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004914455101910</t>
+  </si>
+  <si>
+    <t>2407863535</t>
+  </si>
+  <si>
+    <t>20005914455105965</t>
+  </si>
+  <si>
+    <t>20025714471104018</t>
+  </si>
+  <si>
+    <t>20025918427027425</t>
+  </si>
+  <si>
+    <t>20011918494107345</t>
+  </si>
+  <si>
+    <t>20025918427028020</t>
+  </si>
+  <si>
+    <t>19533744446</t>
+  </si>
+  <si>
+    <t>20005914487012181.</t>
+  </si>
+  <si>
+    <t>Rabbi Hossain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rakib khan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raja khan.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nasir Mia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kawsar Mia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏水良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏水良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19991018175023584</t>
+  </si>
+  <si>
+    <t>19991018131000141</t>
+  </si>
+  <si>
+    <t>20001028102003424</t>
+  </si>
+  <si>
+    <t>20001018175100834</t>
+  </si>
+  <si>
+    <t>19998619480102531</t>
+  </si>
+  <si>
+    <t>20053325608224224</t>
+  </si>
+  <si>
+    <t>2000101401110233</t>
+  </si>
+  <si>
+    <t>20001018125009922</t>
+  </si>
+  <si>
+    <t>20021018125015027</t>
+  </si>
+  <si>
+    <t>19985914487017449</t>
+  </si>
+  <si>
+    <t>5017186554635</t>
+  </si>
+  <si>
+    <t>20005017116016503</t>
+  </si>
+  <si>
+    <t>20005017117017642</t>
+  </si>
+  <si>
+    <t>20035425403012925</t>
+  </si>
+  <si>
+    <t>20055914487041837</t>
+  </si>
+  <si>
+    <t>20024916911000286</t>
+  </si>
+  <si>
+    <t>20055914487012181</t>
+  </si>
+  <si>
+    <t>19915914487000230</t>
+  </si>
+  <si>
+    <t>20005918447102156</t>
+  </si>
+  <si>
+    <t>6725805744165</t>
+  </si>
+  <si>
+    <t>28594471017425</t>
+  </si>
+  <si>
+    <t>1999594487037590</t>
+  </si>
+  <si>
+    <t>200759448703559</t>
+  </si>
+  <si>
+    <t>2007594471021096</t>
+  </si>
+  <si>
+    <t>Sumon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bakka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏水良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rakib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fojlul Rahman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maruf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sohag Shekh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md Riaj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mamun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高湘赣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mizanul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高湘赣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mahidul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sumon 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robbani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hridoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mahafus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sohel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khirul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jakir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mintu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nayeem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasibul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shawon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nahid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mafus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rinku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yasin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abdulla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foysal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rasel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sagor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rakib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J0455</t>
+  </si>
+  <si>
+    <t>J0452</t>
+  </si>
+  <si>
+    <t>J0453</t>
+  </si>
+  <si>
+    <t>J0454</t>
+  </si>
+  <si>
+    <t>U2769</t>
+  </si>
+  <si>
+    <t>U2527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rasel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高湘赣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sujon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAKIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bachier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +3090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +3113,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -689,8 +3153,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -710,8 +3175,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1014,21 +3480,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -2361,71 +4827,71 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>130</v>
+      <c r="D59" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="1">
         <v>4173844426</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D61" s="1">
         <v>2812732978</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2436,134 +4902,5999 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D63" s="1">
         <v>6003758106</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D64" s="1">
         <v>1910736188</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4204323308</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8239965687</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7357442743</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G80" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" s="5">
+        <v>8256574149</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1931321846</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D176" s="1">
+        <v>4200016592</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D178" s="1">
+        <v>4200016599</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D180" s="1">
+        <v>4200016594</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D189" s="5">
+        <v>8252826550</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D190" s="5">
+        <v>2385141482</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A200" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A202" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A203" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A204" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A205" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D205" s="5">
+        <v>7803664387</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A207" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D207" s="5">
+        <v>7805505828</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A208" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A209" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D210" s="5">
+        <v>9557674760</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A213" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A220" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A221" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A223" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A224" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A225" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A226" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A227" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A229" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A231" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A232" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A233" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A234" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A235" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A236" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A237" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A238" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A239" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A240" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A241" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A242" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A243" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A244" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A245" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A246" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A247" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B247" s="1">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A248" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A249" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A251" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B251" s="1">
+        <v>1</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A252" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B252" s="1">
+        <v>1</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A253" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B253" s="1">
+        <v>1</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A254" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B254" s="1">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A255" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A256" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B256" s="1">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A257" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A258" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B258" s="1">
+        <v>1</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A259" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B259" s="1">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A260" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B260" s="1">
+        <v>1</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A261" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A262" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A263" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B263" s="1">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A264" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B264" s="1">
+        <v>1</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A265" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B265" s="1">
+        <v>1</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A266" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A267" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B267" s="1">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A269" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B269" s="1">
+        <v>1</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A270" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B270" s="1">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A271" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A272" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B272" s="1">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A273" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A274" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A275" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A276" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A277" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B277" s="1">
+        <v>1</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D277" s="5">
+        <v>6901335817</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A278" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D278" s="5">
+        <v>4203247970</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A279" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B279" s="1">
+        <v>1</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A280" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B280" s="1">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A281" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B281" s="1">
+        <v>1</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D281" s="5">
+        <v>2811962022</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A282" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B282" s="1">
+        <v>1</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A283" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B283" s="1">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D283" s="5">
+        <v>3756605873</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A284" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B284" s="1">
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A285" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D285" s="5">
+        <v>6903718234</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A286" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A287" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B287" s="1">
+        <v>1</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A288" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B288" s="1">
+        <v>1</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D288" s="5">
+        <v>2857707851</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B289" s="1">
+        <v>1</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D289" s="5">
+        <v>6904704316</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A290" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B290" s="1">
+        <v>1</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D290" s="5">
+        <v>1031691395</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A291" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B291" s="1">
+        <v>1</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D291" s="5">
+        <v>6902469789</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A292" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A293" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B293" s="1">
+        <v>1</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A294" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A295" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A296" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B296" s="1">
+        <v>1</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A297" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D297" s="5">
+        <v>8715059104</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A298" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B298" s="1">
+        <v>1</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D298" s="5">
+        <v>1504376417</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A299" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B299" s="1">
+        <v>1</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A300" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B300" s="1">
+        <v>1</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A301" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B301" s="1">
+        <v>1</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D301" s="5">
+        <v>7357980205</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A302" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D302" s="5">
+        <v>3312371291</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A303" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A304" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D304" s="5">
+        <v>91537922603</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A305" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D305" s="5">
+        <v>6011638803</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A306" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A307" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D307" s="5">
+        <v>1901102440</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A308" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A309" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A310" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B310" s="1">
+        <v>1</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A311" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A312" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A313" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A314" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A315" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A316" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="1">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" s="1">
+        <v>1</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A319" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A320" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" s="1">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A322" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/安全帽名单.xlsx
+++ b/安全帽名单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="824">
   <si>
     <t>材料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2600,10 +2600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.10.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2616,30 +2612,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020.10.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAWA梁场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAWA梁场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2703,10 +2683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏水良</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3083,6 +3059,10 @@
   </si>
   <si>
     <t>2020.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3482,8 +3462,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="G317" sqref="G317"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8956,10 +8936,10 @@
         <v>650</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>694</v>
@@ -8979,10 +8959,10 @@
         <v>651</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>694</v>
@@ -8990,7 +8970,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B240" s="1">
         <v>1</v>
@@ -9002,10 +8982,10 @@
         <v>652</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>694</v>
@@ -9025,10 +9005,10 @@
         <v>653</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>216</v>
@@ -9048,10 +9028,10 @@
         <v>654</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>694</v>
@@ -9071,10 +9051,10 @@
         <v>655</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>694</v>
@@ -9082,7 +9062,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B244" s="1">
         <v>1</v>
@@ -9094,10 +9074,10 @@
         <v>656</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>704</v>
+        <v>823</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>694</v>
@@ -9117,10 +9097,10 @@
         <v>657</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>694</v>
@@ -9140,10 +9120,10 @@
         <v>658</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>694</v>
@@ -9163,10 +9143,10 @@
         <v>659</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>216</v>
@@ -9186,13 +9166,13 @@
         <v>660</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
@@ -9209,10 +9189,10 @@
         <v>661</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>704</v>
+        <v>823</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>694</v>
@@ -9232,10 +9212,10 @@
         <v>662</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>707</v>
+        <v>823</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>694</v>
@@ -9255,13 +9235,13 @@
         <v>663</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
@@ -9278,10 +9258,10 @@
         <v>664</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>694</v>
@@ -9301,10 +9281,10 @@
         <v>665</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>694</v>
@@ -9324,10 +9304,10 @@
         <v>666</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>694</v>
@@ -9347,10 +9327,10 @@
         <v>667</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>216</v>
@@ -9370,10 +9350,10 @@
         <v>668</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>694</v>
@@ -9393,10 +9373,10 @@
         <v>669</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>694</v>
@@ -9416,10 +9396,10 @@
         <v>670</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>694</v>
@@ -9439,10 +9419,10 @@
         <v>671</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>694</v>
@@ -9462,10 +9442,10 @@
         <v>672</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>705</v>
+        <v>823</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>694</v>
@@ -9485,10 +9465,10 @@
         <v>673</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>694</v>
@@ -9508,10 +9488,10 @@
         <v>674</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>694</v>
@@ -9519,7 +9499,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B263" s="1">
         <v>1</v>
@@ -9531,10 +9511,10 @@
         <v>675</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>707</v>
+        <v>823</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>694</v>
@@ -9554,10 +9534,10 @@
         <v>676</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>694</v>
@@ -9577,10 +9557,10 @@
         <v>677</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>694</v>
@@ -9603,7 +9583,7 @@
         <v>697</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>216</v>
@@ -9611,7 +9591,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B267" s="1">
         <v>1</v>
@@ -9626,7 +9606,7 @@
         <v>697</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>216</v>
@@ -9640,16 +9620,16 @@
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="D268" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="F268" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>52</v>
@@ -9657,22 +9637,22 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B269" s="1">
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>52</v>
@@ -9686,16 +9666,16 @@
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>52</v>
@@ -9709,16 +9689,16 @@
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>52</v>
@@ -9732,16 +9712,16 @@
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>52</v>
@@ -9749,393 +9729,393 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G273" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B273" s="1">
-        <v>1</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G274" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B274" s="1">
-        <v>1</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D274" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F274" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G275" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B275" s="1">
-        <v>1</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D275" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G276" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B276" s="1">
-        <v>1</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G276" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B277" s="1">
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D277" s="5">
         <v>6901335817</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B278" s="1">
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D278" s="5">
         <v>4203247970</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B279" s="1">
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B280" s="1">
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B281" s="1">
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D281" s="5">
         <v>2811962022</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B282" s="1">
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B283" s="1">
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D283" s="5">
         <v>3756605873</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B284" s="1">
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B285" s="1">
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D285" s="5">
         <v>6903718234</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B286" s="1">
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B287" s="1">
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B288" s="1">
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D288" s="5">
         <v>2857707851</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B289" s="1">
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D289" s="5">
         <v>6904704316</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.15">
@@ -10152,59 +10132,59 @@
         <v>1031691395</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B291" s="1">
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D291" s="5">
         <v>6902469789</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B292" s="1">
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.15">
@@ -10215,364 +10195,364 @@
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B294" s="1">
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B295" s="1">
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B296" s="1">
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B297" s="1">
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D297" s="5">
         <v>8715059104</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B298" s="1">
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D298" s="5">
         <v>1504376417</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B299" s="1">
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B300" s="1">
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B301" s="1">
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D301" s="5">
         <v>7357980205</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B302" s="1">
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D302" s="5">
         <v>3312371291</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B303" s="1">
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B304" s="1">
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D304" s="5">
         <v>91537922603</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B305" s="1">
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D305" s="5">
         <v>6011638803</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B306" s="1">
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B307" s="1">
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D307" s="5">
         <v>1901102440</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B308" s="1">
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.15">
@@ -10583,157 +10563,157 @@
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B310" s="1">
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B311" s="1">
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B312" s="1">
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B313" s="1">
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B314" s="1">
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B315" s="1">
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.15">
@@ -10744,19 +10724,19 @@
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
@@ -10767,19 +10747,19 @@
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D317" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
@@ -10790,42 +10770,42 @@
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B319" s="1">
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
@@ -10836,19 +10816,19 @@
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
@@ -10859,19 +10839,19 @@
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
@@ -10882,19 +10862,19 @@
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/安全帽名单.xlsx
+++ b/安全帽名单.xlsx
@@ -10,14 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$276:$G$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$322</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="854">
   <si>
     <t>材料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2994,27 +2995,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020.10.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依拉木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rasel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高湘赣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sujon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2020.10.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rasel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.10.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高湘赣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAWA现场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sujon</t>
+    <t>聂军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3026,10 +3043,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LABOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2020.10.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SUMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一套公路板架设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3038,31 +3063,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LABOUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUMON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一套公路板架设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sagor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bachier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.10.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依拉木</t>
+    <t>2020.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMIRHOSSAIN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bellal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20035914471105486</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余招飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rajon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005914471106633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余招飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>billal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027241353</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余招飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanvir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19995918411011687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shahin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4207783673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢梁班组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md.Shimul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19922613451000608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂晓明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3459,11 +3580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G322"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3471,7 +3594,7 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
@@ -8936,10 +9059,10 @@
         <v>650</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>694</v>
@@ -8962,7 +9085,7 @@
         <v>698</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>694</v>
@@ -8985,7 +9108,7 @@
         <v>700</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>694</v>
@@ -9008,7 +9131,7 @@
         <v>700</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>216</v>
@@ -9031,7 +9154,7 @@
         <v>701</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>694</v>
@@ -9054,7 +9177,7 @@
         <v>700</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>694</v>
@@ -9077,7 +9200,7 @@
         <v>700</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>694</v>
@@ -9100,7 +9223,7 @@
         <v>700</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>694</v>
@@ -9123,7 +9246,7 @@
         <v>700</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>694</v>
@@ -9146,7 +9269,7 @@
         <v>700</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>216</v>
@@ -9169,7 +9292,7 @@
         <v>700</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>702</v>
@@ -9192,7 +9315,7 @@
         <v>700</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>694</v>
@@ -9215,7 +9338,7 @@
         <v>700</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>694</v>
@@ -9238,7 +9361,7 @@
         <v>700</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>703</v>
@@ -9261,7 +9384,7 @@
         <v>701</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>694</v>
@@ -9284,7 +9407,7 @@
         <v>700</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>694</v>
@@ -9307,7 +9430,7 @@
         <v>700</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>694</v>
@@ -9330,7 +9453,7 @@
         <v>700</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>216</v>
@@ -9353,7 +9476,7 @@
         <v>701</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>694</v>
@@ -9376,7 +9499,7 @@
         <v>700</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>694</v>
@@ -9399,7 +9522,7 @@
         <v>701</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>694</v>
@@ -9422,7 +9545,7 @@
         <v>704</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>694</v>
@@ -9445,7 +9568,7 @@
         <v>700</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>694</v>
@@ -9468,7 +9591,7 @@
         <v>700</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>694</v>
@@ -9491,7 +9614,7 @@
         <v>700</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>694</v>
@@ -9514,7 +9637,7 @@
         <v>700</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>694</v>
@@ -9537,7 +9660,7 @@
         <v>701</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>694</v>
@@ -9560,7 +9683,7 @@
         <v>700</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>694</v>
@@ -9583,7 +9706,7 @@
         <v>697</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>216</v>
@@ -9606,7 +9729,7 @@
         <v>697</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>216</v>
@@ -10724,53 +10847,53 @@
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>747</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>10</v>
+        <v>812</v>
       </c>
       <c r="B317" s="1">
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>800</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>14</v>
+        <v>815</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>10</v>
+        <v>812</v>
       </c>
       <c r="B318" s="1">
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>801</v>
@@ -10782,103 +10905,266 @@
         <v>14</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B319" s="1">
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>802</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>10</v>
+        <v>812</v>
       </c>
       <c r="B320" s="1">
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>803</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>14</v>
+        <v>815</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>10</v>
+        <v>822</v>
       </c>
       <c r="B321" s="1">
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>804</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>14</v>
+        <v>815</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>10</v>
+        <v>824</v>
       </c>
       <c r="B322" s="1">
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>805</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>812</v>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A323" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A324" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A325" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A326" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A327" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" s="1">
+        <v>1</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D328" s="5">
+        <v>9157756298</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A329" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G322"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/安全帽名单.xlsx
+++ b/安全帽名单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1007">
   <si>
     <t>材料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3171,6 +3171,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Md.Shimul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3183,7 +3187,539 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Joherul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 20025914487001684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭聪诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shohel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:20025914455108542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Khan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:6012047624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minhaj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:2854422595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rasel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:5914439565389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003212414042099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Din Islam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:5914455567816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭聪诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAWA梁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kamal </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:19915914487105779</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robiul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 2006131223105826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭聪诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sabbir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 2007594407011553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md. Shimul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19922613451000608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>桂晓明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>krishno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2404608594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4613562364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rajib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37578519089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bijoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19752616240000043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarikul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01752187899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01864016120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 20025418731017650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 20025914471107100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 20005418763106374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 19995914471109371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parvej</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junaid Arif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sagor</t>
+  </si>
+  <si>
+    <t>sheikh rifat</t>
+  </si>
+  <si>
+    <t>songit khan</t>
+  </si>
+  <si>
+    <t>amit sheikh</t>
+  </si>
+  <si>
+    <t>badha khan</t>
+  </si>
+  <si>
+    <t>arman hossain</t>
+  </si>
+  <si>
+    <t>skibul hasan</t>
+  </si>
+  <si>
+    <t>Golam mashqur</t>
+  </si>
+  <si>
+    <t>19975914487012904</t>
+  </si>
+  <si>
+    <t>19955914487010575</t>
+  </si>
+  <si>
+    <t>591447524549</t>
+  </si>
+  <si>
+    <t>2001691448701057</t>
+  </si>
+  <si>
+    <t>19945914487000012</t>
+  </si>
+  <si>
+    <t>19971222206125575</t>
+  </si>
+  <si>
+    <t>Faruk</t>
+  </si>
+  <si>
+    <t>Siham</t>
+  </si>
+  <si>
+    <t>P0lash</t>
+  </si>
+  <si>
+    <t>Alamgir</t>
+  </si>
+  <si>
+    <t>Didar</t>
+  </si>
+  <si>
+    <t>Lotif</t>
+  </si>
+  <si>
+    <t>Rashed</t>
+  </si>
+  <si>
+    <t>Tusher</t>
+  </si>
+  <si>
+    <t>Saim</t>
+  </si>
+  <si>
+    <t>Alom</t>
+  </si>
+  <si>
+    <t>Showon</t>
+  </si>
+  <si>
+    <t>Shadin</t>
+  </si>
+  <si>
+    <t>Rasel</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Nahid</t>
+  </si>
+  <si>
+    <t>Gobindo</t>
+  </si>
+  <si>
+    <t>Nayem</t>
+  </si>
+  <si>
+    <t>Saddam</t>
+  </si>
+  <si>
+    <t>Tarek</t>
+  </si>
+  <si>
+    <t>Sojeb</t>
+  </si>
+  <si>
+    <t>Soriful</t>
+  </si>
+  <si>
+    <t>Akidul</t>
+  </si>
+  <si>
+    <t>Nayon</t>
+  </si>
+  <si>
+    <t>Hasidul</t>
+  </si>
+  <si>
+    <t>Habibur</t>
+  </si>
+  <si>
+    <t>Sukur</t>
+  </si>
+  <si>
+    <t>Shohag</t>
+  </si>
+  <si>
+    <t>Maksudur</t>
+  </si>
+  <si>
+    <t>Robiul</t>
+  </si>
+  <si>
+    <t>Jewel</t>
+  </si>
+  <si>
+    <t>Hridoy</t>
+  </si>
+  <si>
+    <t>Shahin</t>
+  </si>
+  <si>
+    <t>Shamim</t>
+  </si>
+  <si>
+    <t>Anower</t>
+  </si>
+  <si>
+    <t>Sakil</t>
+  </si>
+  <si>
+    <t>2006591448703628</t>
+  </si>
+  <si>
+    <t>19932717786000273</t>
+  </si>
+  <si>
+    <t>5918411672883</t>
+  </si>
+  <si>
+    <t>1992591448700139</t>
+  </si>
+  <si>
+    <t>19872694814926145</t>
+  </si>
+  <si>
+    <t>20001018175101843</t>
+  </si>
+  <si>
+    <t>1997514487020601</t>
+  </si>
+  <si>
+    <t>2716477296995</t>
+  </si>
+  <si>
+    <t>20068619480102887</t>
+  </si>
+  <si>
+    <t>20075944870352</t>
+  </si>
+  <si>
+    <t>0891518</t>
+  </si>
+  <si>
+    <t>20015914471104998</t>
+  </si>
+  <si>
+    <t>19994101817510234</t>
+  </si>
+  <si>
+    <t>2002101817505443</t>
+  </si>
+  <si>
+    <t>20011817513300162</t>
+  </si>
+  <si>
+    <t>047470</t>
+  </si>
+  <si>
+    <t>2002821732039919</t>
+  </si>
+  <si>
+    <t>2003821732047476</t>
+  </si>
+  <si>
+    <t>20008217320104041</t>
+  </si>
+  <si>
+    <t>2003821752038379</t>
+  </si>
+  <si>
+    <t>20048217320109912</t>
+  </si>
+  <si>
+    <t>2916239957117</t>
+  </si>
+  <si>
+    <t>2001918427004242</t>
+  </si>
+  <si>
+    <t>19912611813000159</t>
+  </si>
+  <si>
+    <t>19988612523006124</t>
+  </si>
+  <si>
+    <t>2007869473006244</t>
+  </si>
+  <si>
+    <t>19975914487042883</t>
+  </si>
+  <si>
+    <t>2020.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套公路板架设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3258,7 +3794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3274,6 +3810,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3583,10 +4125,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G329"/>
+  <dimension ref="A1:G398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A330" sqref="A330"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11140,25 +11682,1608 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>829</v>
+        <v>310</v>
       </c>
       <c r="B329" s="1">
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>853</v>
+        <v>313</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A330" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A331" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A332" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A333" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A334" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A335" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A336" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A337" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A338" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A339" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B339" s="1">
+        <v>1</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A340" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A341" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A342" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B342" s="1">
+        <v>1</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A343" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A344" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B344" s="1">
+        <v>1</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A345" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B345" s="1">
+        <v>1</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A346" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B346" s="1">
+        <v>1</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A347" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" s="1">
+        <v>1</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A348" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" s="1">
+        <v>1</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A349" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" s="1">
+        <v>1</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A350" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" s="1">
+        <v>1</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A351" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B351" s="1">
+        <v>1</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A352" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B352" s="1">
+        <v>1</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A353" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B353" s="1">
+        <v>1</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A354" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B354" s="1">
+        <v>1</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A355" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B355" s="1">
+        <v>1</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D355" s="7">
+        <v>9550461223</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A356" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B356" s="1">
+        <v>1</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A357" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B357" s="1">
+        <v>1</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D357" s="6">
+        <v>6003616338</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A358" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B358" s="1">
+        <v>1</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A359" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B359" s="1">
+        <v>1</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D359" s="6">
+        <v>2848937765</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A360" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B360" s="1">
+        <v>1</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A361" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B361" s="1">
+        <v>1</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A362" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A363" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B363" s="1">
+        <v>1</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A364" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B364" s="1">
+        <v>1</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A365" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B365" s="1">
+        <v>1</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A366" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B366" s="1">
+        <v>1</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A367" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B367" s="1">
+        <v>1</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D367" s="6">
+        <v>5554479252</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A368" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B368" s="1">
+        <v>1</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A369" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B369" s="1">
+        <v>1</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D369" s="6">
+        <v>5979346714</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A370" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B370" s="1">
+        <v>1</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A371" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B371" s="1">
+        <v>1</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D371" s="6">
+        <v>8258019457</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A372" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B372" s="1">
+        <v>1</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A373" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B373" s="1">
+        <v>1</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D373" s="6"/>
+      <c r="E373" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A374" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B374" s="1">
+        <v>1</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A375" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B375" s="1">
+        <v>1</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A376" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B376" s="1">
+        <v>1</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A377" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B377" s="1">
+        <v>1</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A378" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B378" s="1">
+        <v>1</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A379" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B379" s="1">
+        <v>1</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D379" s="6">
+        <v>6004389471</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A380" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B380" s="1">
+        <v>1</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A381" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B381" s="1">
+        <v>1</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D381" s="6"/>
+      <c r="E381" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A382" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B382" s="1">
+        <v>1</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A383" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B383" s="1">
+        <v>1</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A384" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B384" s="1">
+        <v>1</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D384" s="6">
+        <v>4212468805</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A385" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B385" s="1">
+        <v>1</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A386" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B386" s="1">
+        <v>1</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D386" s="6">
+        <v>2365797998</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A387" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B387" s="1">
+        <v>1</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D387" s="6">
+        <v>1513706158</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A388" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B388" s="1">
+        <v>1</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A389" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B389" s="1">
+        <v>1</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A390" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B390" s="1">
+        <v>1</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A391" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B391" s="1">
+        <v>1</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A392" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B392" s="1">
+        <v>1</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>983</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A393" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B393" s="1">
+        <v>1</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A394" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B394" s="1">
+        <v>1</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A395" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B395" s="1">
+        <v>1</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A396" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B396" s="1">
+        <v>1</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D396" s="6">
+        <v>5554458439</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A397" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B397" s="1">
+        <v>1</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D397" s="6">
+        <v>2857657015</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A398" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B398" s="1">
+        <v>1</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
